--- a/research/tf_idf+spectral.xlsx
+++ b/research/tf_idf+spectral.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07248316705226898</v>
+        <v>-3.074183225631714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4014503359794617</v>
+        <v>-0.4346006214618683</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5170093774795532</v>
+        <v>-3.070034265518188</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1331887245178223</v>
+        <v>-0.07683882117271423</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.497171878814697</v>
+        <v>-5.645650863647461</v>
       </c>
       <c r="E4" t="n">
-        <v>2.639008045196533</v>
+        <v>-1.35999596118927</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6564816832542419</v>
+        <v>-2.222425699234009</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.737011671066284</v>
+        <v>2.171107292175293</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.181562066078186</v>
+        <v>-2.484158754348755</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.023180484771729</v>
+        <v>2.762398719787598</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.649360716342926</v>
+        <v>-1.677501916885376</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.199824929237366</v>
+        <v>0.2866002917289734</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.497847080230713</v>
+        <v>-5.645239353179932</v>
       </c>
       <c r="E8" t="n">
-        <v>2.638860464096069</v>
+        <v>-1.360580563545227</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9547848701477051</v>
+        <v>-0.6781886219978333</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.071865916252136</v>
+        <v>1.628278970718384</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1.834739923477173</v>
+        <v>-0.1835722327232361</v>
       </c>
       <c r="E10" t="n">
-        <v>3.008668661117554</v>
+        <v>-3.591418981552124</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.586441993713379</v>
+        <v>-3.14704442024231</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.684266984462738</v>
+        <v>-2.473545789718628</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.409972667694092</v>
+        <v>-1.868455171585083</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.805406808853149</v>
+        <v>3.63489031791687</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>1.152029395103455</v>
+        <v>1.124889373779297</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.493707418441772</v>
+        <v>1.156353354454041</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1639588922262192</v>
+        <v>-2.621892213821411</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2806862592697144</v>
+        <v>0.02849499881267548</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1.390167355537415</v>
+        <v>-1.862938046455383</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5001742839813232</v>
+        <v>-0.3765422403812408</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1.249365568161011</v>
+        <v>0.9578726291656494</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.624758005142212</v>
+        <v>2.255044221878052</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1697002351284027</v>
+        <v>-1.455629944801331</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.483939647674561</v>
+        <v>1.150280952453613</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1726657152175903</v>
+        <v>-2.325748205184937</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8298695683479309</v>
+        <v>0.6664767861366272</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2666634321212769</v>
+        <v>-2.134515285491943</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.613860130310059</v>
+        <v>1.771059036254883</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.8521900177001953</v>
+        <v>-1.534763932228088</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.690804719924927</v>
+        <v>1.842183709144592</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.377870917320251</v>
+        <v>-4.394586563110352</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5909062027931213</v>
+        <v>0.5011790990829468</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9978283643722534</v>
+        <v>-1.152987360954285</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.7529123425483704</v>
+        <v>-0.2312308549880981</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.41338849067688</v>
+        <v>0.3854138553142548</v>
       </c>
       <c r="E23" t="n">
-        <v>0.121154747903347</v>
+        <v>0.3330209851264954</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.6517189145088196</v>
+        <v>-1.900070428848267</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.989294528961182</v>
+        <v>1.766446709632874</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.40607213973999</v>
+        <v>-1.856155633926392</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.599526882171631</v>
+        <v>2.86487865447998</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5500271320343018</v>
+        <v>-2.860552072525024</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.773802995681763</v>
+        <v>1.250632405281067</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.552309513092041</v>
+        <v>-1.888478875160217</v>
       </c>
       <c r="E27" t="n">
-        <v>-4.071960926055908</v>
+        <v>3.945844173431396</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5049786567687988</v>
+        <v>-1.570637464523315</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.364032626152039</v>
+        <v>0.5080491900444031</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.45122504234314</v>
+        <v>-3.046471118927002</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.6341388821601868</v>
+        <v>-2.372292041778564</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.08981306105852127</v>
+        <v>-3.404338598251343</v>
       </c>
       <c r="E30" t="n">
-        <v>-3.820964336395264</v>
+        <v>2.484853267669678</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7669585943222046</v>
+        <v>-2.469524145126343</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.2135581970214844</v>
+        <v>-0.5075759887695312</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.7085429430007935</v>
+        <v>-1.849624752998352</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.201122760772705</v>
+        <v>1.947747349739075</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3602176010608673</v>
+        <v>-1.74310564994812</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.373140454292297</v>
+        <v>1.256964087486267</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>1.011810302734375</v>
+        <v>-1.10271954536438</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.305011630058289</v>
+        <v>0.10372643917799</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.528306007385254</v>
+        <v>-4.66120719909668</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8260137438774109</v>
+        <v>0.4220871031284332</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.728954017162323</v>
+        <v>-2.288761854171753</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.827561140060425</v>
+        <v>2.304084062576294</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2678473889827728</v>
+        <v>-1.883597254753113</v>
       </c>
       <c r="E37" t="n">
-        <v>-2.152621507644653</v>
+        <v>1.555139183998108</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>3.902783870697021</v>
+        <v>-3.196085453033447</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.5580681562423706</v>
+        <v>-2.777448415756226</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>2.235572099685669</v>
+        <v>-1.732800960540771</v>
       </c>
       <c r="E39" t="n">
-        <v>0.497965008020401</v>
+        <v>-2.035465478897095</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2962607443332672</v>
+        <v>-2.453959941864014</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.1792280077934265</v>
+        <v>-0.1470774859189987</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3402294814586639</v>
+        <v>-3.082854032516479</v>
       </c>
       <c r="E41" t="n">
-        <v>-3.012916326522827</v>
+        <v>1.445545434951782</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7685762643814087</v>
+        <v>-3.642346858978271</v>
       </c>
       <c r="E42" t="n">
-        <v>-4.075153827667236</v>
+        <v>1.821280121803284</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.879647850990295</v>
+        <v>-0.3982314467430115</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.9888864159584045</v>
+        <v>2.339467763900757</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7444958686828613</v>
+        <v>-0.5908594131469727</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.568573236465454</v>
+        <v>1.052331566810608</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.57173091173172</v>
+        <v>-0.1486412286758423</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8937278985977173</v>
+        <v>-0.5704694986343384</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1937451213598251</v>
+        <v>-1.637099862098694</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.517998337745667</v>
+        <v>0.8270705342292786</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1487037241458893</v>
+        <v>-2.398131132125854</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.267138481140137</v>
+        <v>1.418776273727417</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3.392246007919312</v>
+        <v>1.540758490562439</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9282770752906799</v>
+        <v>-0.442946583032608</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1471150815486908</v>
+        <v>-1.58844006061554</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.472747445106506</v>
+        <v>0.826883852481842</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>3.672671318054199</v>
+        <v>-3.045212268829346</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5311890840530396</v>
+        <v>-2.599957704544067</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2237005233764648</v>
+        <v>-3.794718980789185</v>
       </c>
       <c r="E51" t="n">
-        <v>1.438156604766846</v>
+        <v>-1.118735790252686</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.2226076722145081</v>
+        <v>-2.934926748275757</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1082066148519516</v>
+        <v>0.2007009387016296</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>1.995706558227539</v>
+        <v>-3.743360042572021</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.149949789047241</v>
+        <v>0.2602114379405975</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3.202060699462891</v>
+        <v>1.315779447555542</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7594415545463562</v>
+        <v>-0.4784591495990753</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>-2.333868026733398</v>
+        <v>-0.9554065465927124</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.088837862014771</v>
+        <v>3.127763748168945</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7645917534828186</v>
+        <v>-3.778105735778809</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8629406094551086</v>
+        <v>-0.3711567521095276</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>1.720989584922791</v>
+        <v>-3.938684940338135</v>
       </c>
       <c r="E57" t="n">
-        <v>-2.894373178482056</v>
+        <v>1.236544489860535</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8212391138076782</v>
+        <v>-2.032381772994995</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.341966867446899</v>
+        <v>0.302351176738739</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.709612011909485</v>
+        <v>-2.820343971252441</v>
       </c>
       <c r="E59" t="n">
-        <v>-2.661263704299927</v>
+        <v>2.148386001586914</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>2.40418267250061</v>
+        <v>0.004170697648078203</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.867929100990295</v>
+        <v>-0.2314480394124985</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.8007966279983521</v>
+        <v>-0.1745771467685699</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6260332465171814</v>
+        <v>1.545131921768188</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.676741123199463</v>
+        <v>0.2429205179214478</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3969818353652954</v>
+        <v>1.99100935459137</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>3.371349573135376</v>
+        <v>0.5971994400024414</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.551684379577637</v>
+        <v>-1.38750171661377</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>1.154684543609619</v>
+        <v>-1.162471175193787</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7584581971168518</v>
+        <v>-0.3522889912128448</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>2.619069576263428</v>
+        <v>-2.722014904022217</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5690978765487671</v>
+        <v>-1.618001103401184</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5977199077606201</v>
+        <v>-1.67300271987915</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.231037378311157</v>
+        <v>0.3397724330425262</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>1.826483488082886</v>
+        <v>-0.2127780467271805</v>
       </c>
       <c r="E67" t="n">
-        <v>2.933703422546387</v>
+        <v>-3.521766185760498</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4201338887214661</v>
+        <v>-2.016926050186157</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.957913041114807</v>
+        <v>0.8514574766159058</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>1.808077096939087</v>
+        <v>-0.3958984613418579</v>
       </c>
       <c r="E69" t="n">
-        <v>2.478732109069824</v>
+        <v>-3.114390850067139</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1.120595932006836</v>
+        <v>-1.342411518096924</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4123384058475494</v>
+        <v>-1.222723960876465</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.546227335929871</v>
+        <v>-1.419943451881409</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.167695999145508</v>
+        <v>2.602826833724976</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>2.821187019348145</v>
+        <v>-2.780709505081177</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.518458366394043</v>
+        <v>-1.819430589675903</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.047155380249023</v>
+        <v>-1.064555048942566</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.72285532951355</v>
+        <v>1.827954530715942</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.512351930141449</v>
+        <v>-2.913951396942139</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.451863765716553</v>
+        <v>3.347449779510498</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>2.161714553833008</v>
+        <v>-5.080356597900391</v>
       </c>
       <c r="E75" t="n">
-        <v>-4.467195987701416</v>
+        <v>2.07693886756897</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6124421358108521</v>
+        <v>-2.462916851043701</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01722479425370693</v>
+        <v>-0.3455717861652374</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>-1.287257552146912</v>
+        <v>-1.109887957572937</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.004633188247681</v>
+        <v>2.421265363693237</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>1.682937145233154</v>
+        <v>-1.892302751541138</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.013147115707397</v>
+        <v>-0.7698397040367126</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>1.664224982261658</v>
+        <v>-0.5905559062957764</v>
       </c>
       <c r="E79" t="n">
-        <v>0.007326007820665836</v>
+        <v>-1.031933307647705</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>0.825407862663269</v>
+        <v>-1.561962962150574</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.625570178031921</v>
+        <v>0.3588796854019165</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6180793046951294</v>
+        <v>-1.826138257980347</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.871760368347168</v>
+        <v>0.6963580846786499</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.9667425751686096</v>
+        <v>-3.087759494781494</v>
       </c>
       <c r="E82" t="n">
-        <v>0.03573976457118988</v>
+        <v>0.7439679503440857</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.2199552953243256</v>
+        <v>-1.689477801322937</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.357755422592163</v>
+        <v>1.117106199264526</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>1.707016348838806</v>
+        <v>-0.8684294819831848</v>
       </c>
       <c r="E84" t="n">
-        <v>1.51422905921936</v>
+        <v>-2.298730611801147</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>1.653202652931213</v>
+        <v>-0.3844834566116333</v>
       </c>
       <c r="E85" t="n">
-        <v>-2.130850553512573</v>
+        <v>0.1950280219316483</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>3.167976140975952</v>
+        <v>0.393923819065094</v>
       </c>
       <c r="E86" t="n">
-        <v>-2.445477485656738</v>
+        <v>-1.247166156768799</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>1.529510259628296</v>
+        <v>-1.902276039123535</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.9400663375854492</v>
+        <v>-0.6571096777915955</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7599487900733948</v>
+        <v>-1.855772376060486</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.8640245795249939</v>
+        <v>-0.04217179864645004</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.0173973124474287</v>
+        <v>-1.58217179775238</v>
       </c>
       <c r="E89" t="n">
-        <v>-1.435169696807861</v>
+        <v>0.9789560437202454</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1084652990102768</v>
+        <v>-3.985676765441895</v>
       </c>
       <c r="E90" t="n">
-        <v>1.577780723571777</v>
+        <v>-1.142189979553223</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8042075037956238</v>
+        <v>0.7551531791687012</v>
       </c>
       <c r="E91" t="n">
-        <v>-3.325571775436401</v>
+        <v>1.135283350944519</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3007966876029968</v>
+        <v>-1.861947536468506</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.941088080406189</v>
+        <v>0.9655724763870239</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>1.535684585571289</v>
+        <v>-0.601879894733429</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3605024814605713</v>
+        <v>-1.267887115478516</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>2.080253124237061</v>
+        <v>-2.490568399429321</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.45539790391922</v>
+        <v>-1.164721608161926</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2456057071685791</v>
+        <v>-1.634354472160339</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.450652122497559</v>
+        <v>0.7505731582641602</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>2.341029405593872</v>
+        <v>0.07881592959165573</v>
       </c>
       <c r="E96" t="n">
-        <v>-3.087738275527954</v>
+        <v>0.8024554252624512</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>-2.369776725769043</v>
+        <v>-0.02529408782720566</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.8821609020233154</v>
+        <v>2.705396175384521</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>1.824847936630249</v>
+        <v>-1.170703053474426</v>
       </c>
       <c r="E98" t="n">
-        <v>-1.521911859512329</v>
+        <v>-0.8030955195426941</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8458244800567627</v>
+        <v>-1.371246099472046</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.9730944633483887</v>
+        <v>-0.009561310522258282</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>-2.974017858505249</v>
+        <v>-0.3453445136547089</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.605291128158569</v>
+        <v>0.9146462678909302</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>2.082334756851196</v>
+        <v>-4.952724933624268</v>
       </c>
       <c r="E101" t="n">
-        <v>-4.337594032287598</v>
+        <v>2.028021812438965</v>
       </c>
     </row>
     <row r="102">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.006581595633178949</v>
+        <v>-1.544477224349976</v>
       </c>
       <c r="E102" t="n">
-        <v>-2.028475761413574</v>
+        <v>1.29898726940155</v>
       </c>
     </row>
     <row r="103">
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6116927862167358</v>
+        <v>-1.729838490486145</v>
       </c>
       <c r="E103" t="n">
-        <v>-1.714874267578125</v>
+        <v>0.5664217472076416</v>
       </c>
     </row>
     <row r="104">
@@ -2403,13 +2403,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
-        <v>1.823840141296387</v>
+        <v>-0.2224375456571579</v>
       </c>
       <c r="E104" t="n">
-        <v>2.907555341720581</v>
+        <v>-3.498224020004272</v>
       </c>
     </row>
     <row r="105">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.729979872703552</v>
+        <v>-0.8963168859481812</v>
       </c>
       <c r="E105" t="n">
-        <v>-1.728105425834656</v>
+        <v>2.283508777618408</v>
       </c>
     </row>
     <row r="106">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>0.113329105079174</v>
+        <v>-3.193500280380249</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6509763598442078</v>
+        <v>-0.6358018517494202</v>
       </c>
     </row>
     <row r="107">
@@ -2460,13 +2460,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.5859717130661011</v>
+        <v>-0.970941424369812</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.321996092796326</v>
+        <v>1.328937411308289</v>
       </c>
     </row>
     <row r="108">
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
-        <v>1.828497529029846</v>
+        <v>-0.1933110058307648</v>
       </c>
       <c r="E108" t="n">
-        <v>2.983466386795044</v>
+        <v>-3.565690279006958</v>
       </c>
     </row>
     <row r="109">
@@ -2498,13 +2498,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.6074002385139465</v>
+        <v>-3.356453418731689</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.1826902329921722</v>
+        <v>0.728069007396698</v>
       </c>
     </row>
     <row r="110">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D110" t="n">
-        <v>1.056717276573181</v>
+        <v>-0.8420786261558533</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.925657868385315</v>
+        <v>0.4484733045101166</v>
       </c>
     </row>
     <row r="111">
@@ -2536,13 +2536,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>1.988375782966614</v>
+        <v>-1.87767767906189</v>
       </c>
       <c r="E111" t="n">
-        <v>-1.234334349632263</v>
+        <v>-1.09348738193512</v>
       </c>
     </row>
     <row r="112">
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>2.271170854568481</v>
+        <v>-1.5514155626297</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9221594929695129</v>
+        <v>-2.30261492729187</v>
       </c>
     </row>
     <row r="113">
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.06683581322431564</v>
+        <v>-3.670449733734131</v>
       </c>
       <c r="E113" t="n">
-        <v>-4.268759727478027</v>
+        <v>2.798014879226685</v>
       </c>
     </row>
     <row r="114">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6795452237129211</v>
+        <v>-0.7925442457199097</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.6508059501647949</v>
+        <v>-0.2617752254009247</v>
       </c>
     </row>
     <row r="115">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D115" t="n">
-        <v>-2.305943012237549</v>
+        <v>-0.4127787053585052</v>
       </c>
       <c r="E115" t="n">
-        <v>-3.093461513519287</v>
+        <v>3.525051116943359</v>
       </c>
     </row>
     <row r="116">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D116" t="n">
-        <v>1.439873218536377</v>
+        <v>-1.904339790344238</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.6167227625846863</v>
+        <v>-0.6473076343536377</v>
       </c>
     </row>
   </sheetData>
